--- a/data/0. old data/0. raw/2016/companies/eli.xlsx
+++ b/data/0. old data/0. raw/2016/companies/eli.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="579">
   <si>
     <t xml:space="preserve">Luzern </t>
   </si>
@@ -1754,6 +1754,9 @@
   </si>
   <si>
     <t xml:space="preserve">c/o Gian Bundi, Sumsiaras 117b </t>
+  </si>
+  <si>
+    <t>Bern</t>
   </si>
 </sst>
 </file>
@@ -2279,8 +2282,8 @@
   <dimension ref="A1:AA268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L267" sqref="L267"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -5368,7 +5371,7 @@
         <v>557</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>454</v>
+        <v>578</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>456</v>
